--- a/EMPTestAPI/lib/testcase.xlsx
+++ b/EMPTestAPI/lib/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="searchemp" sheetId="4" r:id="rId1"/>
@@ -1459,7 +1459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1478,18 +1478,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1509,9 +1497,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1867,576 +1852,576 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12" style="11" customWidth="1"/>
-    <col min="2" max="2" width="75" style="11" customWidth="1"/>
-    <col min="3" max="4" width="9" style="11"/>
-    <col min="5" max="6" width="9" style="12"/>
-    <col min="7" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="12" style="7" customWidth="1"/>
+    <col min="2" max="2" width="75" style="7" customWidth="1"/>
+    <col min="3" max="4" width="9" style="7"/>
+    <col min="5" max="6" width="9" style="8"/>
+    <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4">
         <v>22</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4">
         <v>22</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4">
         <v>3</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4">
         <v>15</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4">
         <v>15</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4">
         <v>22</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4">
         <v>3</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8">
         <v>6</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4">
         <v>7</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4">
         <v>16</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4">
         <v>16</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4">
         <v>3</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="4">
         <v>6</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="4">
         <v>2</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="6">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4">
         <v>2</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="6">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="6">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="6">
-        <v>1</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6">
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="6">
-        <v>1</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="6">
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="4">
         <v>2</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6">
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="6">
-        <v>1</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="6">
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="4">
         <v>2</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2453,423 +2438,423 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12" style="11" customWidth="1"/>
-    <col min="2" max="2" width="81.8888888888889" style="11" customWidth="1"/>
-    <col min="3" max="4" width="9" style="11"/>
-    <col min="5" max="5" width="20.1111111111111" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="12" style="7" customWidth="1"/>
+    <col min="2" max="2" width="81.8888888888889" style="7" customWidth="1"/>
+    <col min="3" max="4" width="9" style="7"/>
+    <col min="5" max="5" width="20.1111111111111" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" ht="43.2" spans="1:5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="1:5">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" ht="57.6" spans="1:5">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="17" t="s">
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" ht="57.6" spans="1:5">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" ht="57.6" spans="1:5">
-      <c r="A7" s="14" t="s">
+    <row r="7" ht="43.2" spans="1:5">
+      <c r="A7" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" ht="43.2" spans="1:5">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" ht="43.2" spans="1:5">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" ht="57.6" spans="1:5">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" ht="43.2" spans="1:5">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" ht="57.6" spans="1:5">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="17" t="s">
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" ht="43.2" spans="1:5">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14" ht="43.2" spans="1:5">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" ht="43.2" spans="1:5">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16" ht="43.2" spans="1:5">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" ht="43.2" spans="1:5">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18" ht="43.2" spans="1:5">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" ht="43.2" spans="1:5">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20" ht="43.2" spans="1:5">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="6">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" ht="43.2" spans="1:5">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="22" ht="43.2" spans="1:5">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" ht="43.2" spans="1:5">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="6">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" ht="43.2" spans="1:5">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="6">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2885,8 +2870,8 @@
   <sheetPr/>
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2903,1185 +2888,1185 @@
       <c r="B1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" ht="43.2" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6"/>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6"/>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6"/>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6"/>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6"/>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6"/>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6"/>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6"/>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="6"/>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="6"/>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="6"/>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="6"/>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="6"/>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="6"/>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="6"/>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="6"/>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="6"/>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="6"/>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="6">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="6"/>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="6">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="6"/>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="6"/>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C23" s="6">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="6"/>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" ht="28.8" spans="1:5">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="6">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="6"/>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" ht="28.8" spans="1:5">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="6">
-        <v>1</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="6"/>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" ht="28.8" spans="1:5">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C26" s="6">
-        <v>1</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="6"/>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="6">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="6"/>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="6">
-        <v>1</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="6"/>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" ht="28.8" spans="1:5">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="6">
-        <v>1</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="10"/>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="6">
-        <v>1</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="10"/>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" ht="28.8" spans="1:5">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="6">
-        <v>1</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="10"/>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C32" s="6">
-        <v>1</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="10"/>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" ht="28.8" spans="1:5">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C33" s="6">
-        <v>1</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="10"/>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C34" s="6">
-        <v>1</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="10"/>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" ht="28.8" spans="1:5">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C35" s="6">
-        <v>1</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="10"/>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C36" s="6">
-        <v>1</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="10"/>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" ht="28.8" spans="1:5">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C37" s="6">
-        <v>1</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="10"/>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C38" s="6">
-        <v>1</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="10"/>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" ht="28.8" spans="1:5">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C39" s="6">
-        <v>1</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="10"/>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C40" s="6">
-        <v>1</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="10"/>
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C41" s="6">
-        <v>1</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="10"/>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="6"/>
     </row>
     <row r="42" ht="28.8" spans="1:5">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C42" s="6">
-        <v>1</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="10"/>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C43" s="6">
-        <v>1</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="10"/>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" ht="28.8" spans="1:5">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C44" s="6">
-        <v>1</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="10"/>
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" ht="28.8" spans="1:5">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C45" s="6">
-        <v>1</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="10"/>
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="6"/>
     </row>
     <row r="46" ht="28.8" spans="1:5">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C46" s="6">
-        <v>1</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="10"/>
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="6"/>
     </row>
     <row r="47" ht="28.8" spans="1:5">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C47" s="6">
-        <v>1</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="10"/>
+      <c r="C47" s="4">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="6"/>
     </row>
     <row r="48" ht="28.8" spans="1:5">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C48" s="6">
-        <v>1</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="10"/>
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="6"/>
     </row>
     <row r="49" ht="28.8" spans="1:5">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C49" s="6">
-        <v>1</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="10"/>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="6"/>
     </row>
     <row r="50" ht="28.8" spans="1:5">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C50" s="6">
-        <v>1</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="10"/>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" ht="28.8" spans="1:5">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C51" s="6">
-        <v>1</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="10"/>
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="6"/>
     </row>
     <row r="52" ht="28.8" spans="1:5">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C52" s="6">
-        <v>1</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="10"/>
+      <c r="C52" s="4">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" ht="28.8" spans="1:5">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C53" s="6">
-        <v>1</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="10"/>
+      <c r="C53" s="4">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="6"/>
     </row>
     <row r="54" ht="28.8" spans="1:5">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C54" s="6">
-        <v>1</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="10"/>
+      <c r="C54" s="4">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="6"/>
     </row>
     <row r="55" ht="28.8" spans="1:5">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C55" s="6">
-        <v>1</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="10"/>
+      <c r="C55" s="4">
+        <v>1</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="6"/>
     </row>
     <row r="56" ht="28.8" spans="1:5">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C56" s="6">
-        <v>1</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="10"/>
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="6"/>
     </row>
     <row r="57" ht="28.8" spans="1:5">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C57" s="6">
-        <v>1</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="10"/>
+      <c r="C57" s="4">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="6"/>
     </row>
     <row r="58" ht="28.8" spans="1:5">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C58" s="6">
-        <v>1</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="10"/>
+      <c r="C58" s="4">
+        <v>1</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="6"/>
     </row>
     <row r="59" ht="57.6" spans="1:5">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C59" s="6">
-        <v>0</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E59" s="10"/>
+      <c r="C59" s="4">
+        <v>0</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59" s="6"/>
     </row>
     <row r="60" ht="57.6" spans="1:5">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C60" s="6">
-        <v>0</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E60" s="10"/>
+      <c r="C60" s="4">
+        <v>0</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="6"/>
     </row>
     <row r="61" ht="57.6" spans="1:5">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C61" s="6">
-        <v>0</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E61" s="10"/>
+      <c r="C61" s="4">
+        <v>0</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="6"/>
     </row>
     <row r="62" ht="57.6" spans="1:5">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C62" s="6">
-        <v>0</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E62" s="10"/>
+      <c r="C62" s="4">
+        <v>0</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" s="6"/>
     </row>
     <row r="63" ht="57.6" spans="1:5">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C63" s="6">
-        <v>0</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E63" s="10"/>
+      <c r="C63" s="4">
+        <v>0</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="6"/>
     </row>
     <row r="64" ht="57.6" spans="1:5">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C64" s="6">
-        <v>0</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E64" s="10"/>
+      <c r="C64" s="4">
+        <v>0</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" s="6"/>
     </row>
     <row r="65" ht="57.6" spans="1:5">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C65" s="6">
-        <v>0</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E65" s="10"/>
+      <c r="C65" s="4">
+        <v>0</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" s="6"/>
     </row>
     <row r="66" ht="57.6" spans="1:5">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C66" s="6">
-        <v>0</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E66" s="10"/>
+      <c r="C66" s="4">
+        <v>0</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E66" s="6"/>
     </row>
     <row r="67" ht="57.6" spans="1:5">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C67" s="6">
-        <v>0</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E67" s="10"/>
+      <c r="C67" s="4">
+        <v>0</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E67" s="6"/>
     </row>
     <row r="68" ht="57.6" spans="1:5">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C68" s="6">
-        <v>0</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E68" s="10"/>
+      <c r="C68" s="4">
+        <v>0</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E68" s="6"/>
     </row>
     <row r="69" ht="57.6" spans="1:5">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C69" s="6">
-        <v>0</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E69" s="10"/>
+      <c r="C69" s="4">
+        <v>0</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" s="6"/>
     </row>
     <row r="70" ht="57.6" spans="1:5">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C70" s="6">
-        <v>0</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E70" s="10"/>
+      <c r="C70" s="4">
+        <v>0</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E70" s="6"/>
     </row>
     <row r="71" ht="57.6" spans="1:5">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C71" s="6">
-        <v>0</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E71" s="10"/>
+      <c r="C71" s="4">
+        <v>0</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E71" s="6"/>
     </row>
     <row r="72" ht="57.6" spans="1:5">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C72" s="6">
-        <v>0</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E72" s="10"/>
+      <c r="C72" s="4">
+        <v>0</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E72" s="6"/>
     </row>
     <row r="73" ht="57.6" spans="1:5">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C73" s="6">
-        <v>0</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E73" s="10"/>
+      <c r="C73" s="4">
+        <v>0</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73" s="6"/>
     </row>
     <row r="74" ht="57.6" spans="1:5">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C74" s="6">
-        <v>0</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E74" s="10"/>
+      <c r="C74" s="4">
+        <v>0</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E74" s="6"/>
     </row>
     <row r="75" ht="57.6" spans="1:5">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C75" s="6">
-        <v>0</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E75" s="10"/>
+      <c r="C75" s="4">
+        <v>0</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="6"/>
     </row>
     <row r="76" ht="57.6" spans="1:5">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C76" s="6">
-        <v>0</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E76" s="10"/>
+      <c r="C76" s="4">
+        <v>0</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E76" s="6"/>
     </row>
     <row r="77" ht="57.6" spans="1:5">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C77" s="6">
-        <v>0</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E77" s="10"/>
+      <c r="C77" s="4">
+        <v>0</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" s="6"/>
     </row>
     <row r="78" ht="57.6" spans="1:5">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C78" s="6">
-        <v>0</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E78" s="10"/>
+      <c r="C78" s="4">
+        <v>0</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E78" s="6"/>
     </row>
     <row r="79" ht="57.6" spans="1:5">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C79" s="6">
-        <v>0</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E79" s="10"/>
+      <c r="C79" s="4">
+        <v>0</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
